--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1805.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1805.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.149750077622517</v>
+        <v>0.8258154988288879</v>
       </c>
       <c r="B1">
-        <v>2.294573959716448</v>
+        <v>1.694992423057556</v>
       </c>
       <c r="C1">
-        <v>4.008160359302584</v>
+        <v>6.030293464660645</v>
       </c>
       <c r="D1">
-        <v>2.997223949804066</v>
+        <v>1.952608346939087</v>
       </c>
       <c r="E1">
-        <v>1.170383324972317</v>
+        <v>1.171127319335938</v>
       </c>
     </row>
   </sheetData>
